--- a/ModelSnake.xlsx
+++ b/ModelSnake.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="B2:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
